--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12270" windowHeight="8820" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="3"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>圣殿卫士</t>
   </si>
   <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
     <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
   </si>
   <si>
     <t>圣殿弩手</t>
@@ -1289,8 +1289,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="A37 B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1377,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1833,8 +1833,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1910,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3112,8 +3112,6 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>17</v>
@@ -3323,8 +3321,6 @@
         <v>15.3846153846154</v>
       </c>
     </row>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>30</v>
@@ -3448,8 +3444,6 @@
         <v>14.8571428571429</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>39</v>
@@ -3472,7 +3466,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -3526,7 +3520,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3540,7 +3534,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -3717,8 +3711,6 @@
         <v>14.9285714285714</v>
       </c>
     </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>20</v>
@@ -3928,8 +3920,6 @@
         <v>12.6923076923077</v>
       </c>
     </row>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>32</v>
@@ -3997,8 +3987,6 @@
         <v>12.3333333333333</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>39</v>
@@ -4346,7 +4334,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C37" formulaRange="1"/>
+    <ignoredError sqref="C37 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4356,8 +4344,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4408,7 +4396,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4419,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5054,8 +5042,6 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>61</v>
@@ -5155,8 +5141,6 @@
         <v>13.7142857142857</v>
       </c>
     </row>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>90</v>
@@ -5201,8 +5185,6 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>39</v>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="3"/>
+    <workbookView windowWidth="15030" windowHeight="10155" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
-    <t>圣枪·卡罗琳</t>
+    <t>圣枪·卡洛琳</t>
   </si>
   <si>
     <t>明日之音·露娜</t>
@@ -1289,7 +1289,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4009,8 +4009,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4334,7 +4334,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C37 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C37" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="10155" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>圣殿卫士</t>
   </si>
   <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
     <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
   </si>
   <si>
     <t>圣殿弩手</t>
@@ -1289,8 +1289,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1380,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1503,7 +1503,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17.5833333333333</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1807,7 +1807,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.7142857142857</v>
+        <v>15.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1818,7 +1818,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>16.8333333333333</v>
+        <v>16.9</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2047,7 +2047,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17.3333333333333</v>
+        <v>17.4166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2354,7 +2354,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D37:D41)</f>
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2365,7 +2365,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>16.7</v>
+        <v>16.7666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3466,8 +3466,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3708,7 +3708,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>14.9285714285714</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3931,7 +3931,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3984,7 +3984,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>12.3333333333333</v>
+        <v>12.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3995,7 +3995,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D15,D21:D33,D39:D41)</f>
-        <v>13.7</v>
+        <v>13.7666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +4009,7 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -4334,7 +4334,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C37" formulaRange="1"/>
+    <ignoredError sqref="C37 C9" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4345,7 +4345,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -4584,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C27:C27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C9,C15:C21,C27:C27)</f>
-        <v>15.625</v>
+        <v>15.75</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="13455" windowHeight="12420" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
     <sheet name="亚芬戴克斯" sheetId="2" r:id="rId2"/>
     <sheet name="伊萝莲" sheetId="3" r:id="rId3"/>
     <sheet name="丹巴瓦尔" sheetId="9" r:id="rId4"/>
-    <sheet name="格纳罗尔" sheetId="10" r:id="rId5"/>
+    <sheet name="阿斯塔拉" sheetId="11" r:id="rId5"/>
     <sheet name="帝国" sheetId="5" r:id="rId6"/>
     <sheet name="港口" sheetId="6" r:id="rId7"/>
-    <sheet name="隐秘" sheetId="7" r:id="rId8"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId9"/>
+    <sheet name="蛮石" sheetId="8" r:id="rId8"/>
+    <sheet name="隐秘" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="91">
   <si>
     <t>名称</t>
   </si>
@@ -58,12 +58,12 @@
     <t>圣殿卫士</t>
   </si>
   <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
     <t>狡诈学徒</t>
   </si>
   <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
     <t>圣殿弩手</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>黑金诈术师</t>
   </si>
   <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
     <t>夺取阵地</t>
   </si>
   <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
     <t>禁卫百夫长</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
     <t>旷野祭师</t>
   </si>
   <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
     <t>迅捷长矛手</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>地洞巨獾</t>
   </si>
   <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
     <t>活力仙人掌</t>
   </si>
   <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
     <t>白象战歌·鲁玛</t>
   </si>
   <si>
+    <t>武圣·关羽</t>
+  </si>
+  <si>
     <t>全数否定</t>
   </si>
   <si>
@@ -262,15 +265,6 @@
     <t>克隆术</t>
   </si>
   <si>
-    <t>星辰陨落</t>
-  </si>
-  <si>
-    <t>召熊幻术师</t>
-  </si>
-  <si>
-    <t>幻象龙</t>
-  </si>
-  <si>
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
@@ -298,6 +292,15 @@
     <t>港口卡等：</t>
   </si>
   <si>
+    <t>血饮烈斧·凯</t>
+  </si>
+  <si>
+    <t>原野大祭师·鲁玛</t>
+  </si>
+  <si>
+    <t>蛮石卡等：</t>
+  </si>
+  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
@@ -305,15 +308,6 @@
   </si>
   <si>
     <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>原野大祭师·鲁玛</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1324,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1338,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1366,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1436,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1478,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1503,7 +1497,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17.6666666666667</v>
+        <v>18.4166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1531,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1545,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1587,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1615,7 +1609,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1643,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1684,7 +1678,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D19:D29)</f>
-        <v>16.7272727272727</v>
+        <v>17.2727272727273</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1698,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1712,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1726,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1754,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1807,7 +1801,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.8571428571429</v>
+        <v>16.4285714285714</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1818,7 +1812,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>16.9</v>
+        <v>17.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1833,8 +1827,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1868,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1882,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1910,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1971,7 +1965,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1980,12 +1974,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1994,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2047,7 +2041,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17.4166666666667</v>
+        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2075,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2089,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2131,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2164,7 +2158,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -2173,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -2188,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -2233,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -2259,7 +2253,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f>AVERAGE(D19:D31)</f>
-        <v>16.5384615384615</v>
+        <v>17.0769230769231</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2273,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2287,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2301,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2354,7 +2348,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D37:D41)</f>
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2365,7 +2359,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>16.7666666666667</v>
+        <v>17.4</v>
       </c>
     </row>
   </sheetData>
@@ -2380,8 +2374,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2429,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2499,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2538,7 +2532,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f>AVERAGE(D2:D9)</f>
-        <v>17</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2566,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2580,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2636,12 +2630,12 @@
         <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -2655,7 +2649,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
@@ -2664,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2678,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2692,7 +2686,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2706,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2734,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -2760,7 +2754,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D15:D28)</f>
-        <v>14.9285714285714</v>
+        <v>15.5714285714286</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2774,7 +2768,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2788,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2816,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2830,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2858,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2897,7 +2891,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>14.875</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2908,7 +2902,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D9,D15:D28,D34:D41)</f>
-        <v>15.4666666666667</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2923,8 +2917,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2958,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2986,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3000,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3070,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3084,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3109,7 +3103,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3137,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3151,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3207,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3249,12 +3243,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -3277,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -3292,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -3318,26 +3312,26 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D17:D29)</f>
-        <v>15.3846153846154</v>
+        <v>15.8461538461538</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>31</v>
@@ -3346,26 +3340,26 @@
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
@@ -3374,49 +3368,49 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3441,7 +3435,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>14.8571428571429</v>
+        <v>15.1428571428571</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3452,7 +3446,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>15.6333333333333</v>
+        <v>16.0333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3466,8 +3460,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3492,35 +3486,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3529,54 +3523,54 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3585,32 +3579,32 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>14</v>
@@ -3618,172 +3612,174 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <f>AVERAGE(D2:D15)</f>
-        <v>15</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
         <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -3792,160 +3788,161 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D17:D29)</f>
+        <v>14.6923076923077</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="D36" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2">
-        <v>12</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <f>AVERAGE(D21:D33)</f>
-        <v>12.6923076923077</v>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3959,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3983,10 +3980,12 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D39:D41)</f>
-        <v>12.6666666666667</v>
-      </c>
-    </row>
+        <f>AVERAGE(D35:D41)</f>
+        <v>15.4285714285714</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>39</v>
@@ -3994,8 +3993,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D15,D21:D33,D39:D41)</f>
-        <v>13.7666666666667</v>
+        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
+        <v>15.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4009,8 +4008,8 @@
   <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4083,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4105,7 +4104,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -4128,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4161,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4183,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4194,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4227,34 +4226,34 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C12:C20)</f>
-        <v>16.3333333333333</v>
+        <v>16.8888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
@@ -4265,18 +4264,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="3">
         <v>6</v>
@@ -4287,7 +4286,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3">
         <v>8</v>
@@ -4315,7 +4314,7 @@
       </c>
       <c r="C34" s="3">
         <f>AVERAGE(C26:C31)</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4323,18 +4322,18 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="4">
         <f>AVERAGE(C2:C6,C12:C20,C26:C31)</f>
-        <v>16.9</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C37 C9" formulaRange="1"/>
+    <ignoredError sqref="C9 C37" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4342,10 +4341,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4374,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4385,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4396,7 +4395,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4423,24 +4422,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4473,7 +4472,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>16.375</v>
+        <v>17.5</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -4485,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4496,7 +4495,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4534,25 +4533,19 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>15</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
@@ -4560,32 +4553,32 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C15:C21)</f>
-        <v>15.1428571428571</v>
+      <c r="C23" s="2">
+        <f>AVERAGE(C15:C20)</f>
+        <v>16.3333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -4593,32 +4586,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C27:C27)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C9,C15:C21,C27:C27)</f>
-        <v>15.75</v>
+      <c r="B32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
+        <v>16.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4630,10 +4618,287 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>15.1666666666667</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C13:C19)</f>
+        <v>14.2857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
+        <v>14.3333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4662,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4678,7 +4943,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4689,13 +4954,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4711,7 +4976,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -4739,7 +5004,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>13.1666666666667</v>
+        <v>13.5</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -4751,29 +5016,29 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4795,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4806,314 +5071,15 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2">
         <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>11.5555555555556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C27:C28)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C28)</f>
-        <v>12.1176470588235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>14.6666666666667</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
       </c>
       <c r="C19" s="2">
         <v>13</v>
@@ -5138,29 +5104,29 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>13.7142857142857</v>
+        <v>12.4285714285714</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3">
         <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5190,11 +5156,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>13.9333333333333</v>
+        <v>12.8666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="12420" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="15930" windowHeight="11925" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="萨维丽娅" sheetId="1" r:id="rId1"/>
     <sheet name="亚芬戴克斯" sheetId="2" r:id="rId2"/>
-    <sheet name="伊萝莲" sheetId="3" r:id="rId3"/>
-    <sheet name="丹巴瓦尔" sheetId="9" r:id="rId4"/>
+    <sheet name="丹巴瓦尔" sheetId="9" r:id="rId3"/>
+    <sheet name="伊萝莲" sheetId="3" r:id="rId4"/>
     <sheet name="阿斯塔拉" sheetId="11" r:id="rId5"/>
     <sheet name="帝国" sheetId="5" r:id="rId6"/>
     <sheet name="港口" sheetId="6" r:id="rId7"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="94">
   <si>
     <t>名称</t>
   </si>
@@ -55,9 +55,6 @@
     <t>蓝色</t>
   </si>
   <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
     <t>黑夜突袭</t>
   </si>
   <si>
@@ -94,21 +91,21 @@
     <t>紫色</t>
   </si>
   <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
-    <t>海燕精卫</t>
-  </si>
-  <si>
     <t>白袍主教</t>
   </si>
   <si>
+    <t>黑水伏击</t>
+  </si>
+  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>黑水伏击</t>
-  </si>
-  <si>
     <t>黑金诈术师</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
     <t>夏日女郎·鲍莉</t>
   </si>
   <si>
+    <t>戴维的邪月计划</t>
+  </si>
+  <si>
     <t>春花使者·卡洛琳</t>
   </si>
   <si>
@@ -160,109 +160,112 @@
     <t>不法交易</t>
   </si>
   <si>
-    <t>海盗船长</t>
-  </si>
-  <si>
     <t>烈日大祭师</t>
   </si>
   <si>
     <t>黑旗舰队船长</t>
   </si>
   <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
+    <t>迅捷长矛手</t>
+  </si>
+  <si>
+    <t>强行捕猎</t>
+  </si>
+  <si>
+    <t>血蜥头领</t>
+  </si>
+  <si>
+    <t>地洞巨獾</t>
+  </si>
+  <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>饥蛮巨汉</t>
+  </si>
+  <si>
+    <t>飞斧女豪</t>
+  </si>
+  <si>
+    <t>精灵王子·大羽</t>
+  </si>
+  <si>
+    <t>热血摇滚·凯</t>
+  </si>
+  <si>
+    <t>武圣·关羽</t>
+  </si>
+  <si>
     <t>方尖魔碑</t>
   </si>
   <si>
     <t>沉重否定</t>
   </si>
   <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>缄言法师</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>阳炎坠落</t>
+  </si>
+  <si>
+    <t>改造魔卷</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>心灵操控</t>
+  </si>
+  <si>
+    <t>百花长枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>火蛇巫女·沃凡瑞拉</t>
+  </si>
+  <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>虚化术</t>
+  </si>
+  <si>
     <t>学仆-能源型</t>
   </si>
   <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>缄言法师</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
-    <t>改造魔卷</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>百花长枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>火蛇巫女·沃凡瑞拉</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>迅捷长矛手</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>血蜥头领</t>
-  </si>
-  <si>
-    <t>地洞巨獾</t>
-  </si>
-  <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>饥蛮巨汉</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>热血摇滚·凯</t>
-  </si>
-  <si>
-    <t>白象战歌·鲁玛</t>
-  </si>
-  <si>
-    <t>武圣·关羽</t>
-  </si>
-  <si>
-    <t>全数否定</t>
-  </si>
-  <si>
-    <t>虚化术</t>
-  </si>
-  <si>
     <t>请示隐秘者</t>
   </si>
   <si>
     <t>传记·海市蜃楼·蛇</t>
   </si>
   <si>
-    <t>克隆术</t>
+    <t>召熊幻术师</t>
   </si>
   <si>
     <t>曙光·安娜贝尔</t>
@@ -286,16 +289,22 @@
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>星辰陨落</t>
+  </si>
+  <si>
     <t>海燕·鲍莉</t>
   </si>
   <si>
+    <t>戴维的惊天计谋</t>
+  </si>
+  <si>
     <t>港口卡等：</t>
   </si>
   <si>
+    <t>旷野游侠·大羽</t>
+  </si>
+  <si>
     <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>原野大祭师·鲁玛</t>
   </si>
   <si>
     <t>蛮石卡等：</t>
@@ -1283,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A36 A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1318,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1360,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1371,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1427,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1441,15 +1450,15 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1458,22 +1467,14 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1482,36 +1483,44 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.9090909090909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>18.4166666666667</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1519,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -1533,13 +1542,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1547,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -1561,13 +1570,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1575,13 +1584,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1589,13 +1598,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1603,7 +1612,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -1612,49 +1621,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
         <v>18</v>
       </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>19</v>
-      </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
@@ -1663,30 +1664,38 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D31" s="2">
+        <f>AVERAGE(D18:D28)</f>
+        <v>18.0909090909091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D19:D29)</f>
-        <v>17.2727272727273</v>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -1700,13 +1709,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1714,13 +1723,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1728,13 +1737,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1742,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -1756,13 +1765,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1770,13 +1779,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1793,15 +1802,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>16.4285714285714</v>
+        <f>AVERAGE(D34:D41)</f>
+        <v>16.625</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1811,8 +1820,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D29,D35:D41)</f>
-        <v>17.5333333333333</v>
+        <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1827,8 +1836,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1862,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1904,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1915,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1965,7 +1974,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1974,21 +1983,21 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1999,25 +2008,17 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2026,36 +2027,44 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>18.1666666666667</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2063,7 +2072,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -2077,13 +2086,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2091,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -2105,13 +2114,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2119,21 +2128,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -2141,30 +2150,32 @@
       <c r="D25" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>15</v>
@@ -2176,13 +2187,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
         <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -2191,125 +2202,123 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D18:D29)</f>
+        <v>17.9166666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
         <v>18</v>
       </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2">
-        <v>16</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D19:D31)</f>
-        <v>17.0769230769231</v>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2317,13 +2326,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2340,15 +2349,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>16.4</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>16.5714285714286</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2358,8 +2367,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>17.4</v>
+        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
+        <v>17.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2374,8 +2383,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2400,16 +2409,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2423,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2437,12 +2446,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2456,7 +2465,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2470,13 +2479,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>18</v>
@@ -2484,37 +2493,45 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -2523,111 +2540,103 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <f>AVERAGE(D2:D9)</f>
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16</v>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>AVERAGE(D2:D10)</f>
+        <v>17.2222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>15</v>
@@ -2635,13 +2644,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>14</v>
@@ -2649,13 +2658,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>14</v>
@@ -2663,72 +2672,73 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2">
-        <v>17</v>
-      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -2746,127 +2756,127 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>AVERAGE(D15:D28)</f>
-        <v>15.5714285714286</v>
+        <f>AVERAGE(D16:D28)</f>
+        <v>16.3076923076923</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2883,7 +2893,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
@@ -2891,7 +2901,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2901,13 +2911,12 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D9,D15:D28,D34:D41)</f>
-        <v>16</v>
+        <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2917,8 +2926,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2943,21 +2952,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2966,169 +2975,169 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>17</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f>AVERAGE(D2:D7)</f>
+        <v>17.8333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>16.9</v>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
         <v>19</v>
@@ -3136,69 +3145,69 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
         <v>14</v>
@@ -3206,89 +3215,81 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
@@ -3297,36 +3298,44 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D31" s="2">
+        <f>AVERAGE(D13:D28)</f>
+        <v>15.5625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
-        <v>15.8461538461538</v>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3334,13 +3343,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3348,7 +3357,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -3359,16 +3368,16 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3376,21 +3385,21 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>6</v>
       </c>
       <c r="D39" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
         <v>7</v>
@@ -3401,16 +3410,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3427,15 +3436,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>15.1428571428571</v>
+        <f>AVERAGE(D34:D41)</f>
+        <v>16.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3445,12 +3454,13 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>16.0333333333333</v>
+        <f>AVERAGE(D2:D7,D13:D28,D34:D41)</f>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3460,8 +3470,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3486,7 +3496,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3495,12 +3505,12 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3509,26 +3519,26 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -3537,12 +3547,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3551,224 +3561,222 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="D12" s="1">
+        <f>AVERAGE(D2:D9)</f>
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
+    </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -3779,24 +3787,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -3807,38 +3815,46 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
         <v>18</v>
       </c>
-      <c r="C28" s="2">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
         <v>7</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>13</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
@@ -3847,43 +3863,33 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D17:D29)</f>
-        <v>14.6923076923077</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>17</v>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <f>AVERAGE(D15:D30)</f>
+        <v>15.125</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
         <v>18</v>
@@ -3891,72 +3897,72 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3973,19 +3979,17 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>15.4285714285714</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
+        <f>AVERAGE(D36:D41)</f>
+        <v>16.6666666666667</v>
+      </c>
+    </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>39</v>
@@ -3993,8 +3997,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>15.2666666666667</v>
+        <f>AVERAGE(D2:D9,D15:D30,D36:D41)</f>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -4006,10 +4010,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4032,10 +4036,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -4043,7 +4047,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -4054,102 +4058,102 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>19.2</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4165,7 +4169,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4176,13 +4180,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4190,22 +4194,16 @@
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -4213,87 +4211,87 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C12:C20)</f>
-        <v>16.8888888888889</v>
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C11:C19)</f>
+        <v>17.4444444444444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="3">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3">
-        <v>16</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3"/>
@@ -4301,39 +4299,34 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3">
-        <f>AVERAGE(C26:C31)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="C33" s="3">
+        <f>AVERAGE(C25:C30)</f>
+        <v>17.3333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="4">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C31)</f>
-        <v>17.35</v>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C5,C11:C19,C25:C30)</f>
+        <v>17.8421052631579</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C9 C37" formulaRange="1"/>
+    <ignoredError sqref="C36 C8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4341,10 +4334,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4373,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4389,7 +4382,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4400,18 +4393,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -4422,13 +4415,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4444,7 +4437,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -4465,42 +4458,42 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>17.5</v>
+        <v>18.125</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4511,10 +4504,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -4522,7 +4515,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -4533,7 +4526,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>6</v>
@@ -4554,31 +4547,37 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
-        <v>16.3333333333333</v>
+        <v>16.8333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -4586,27 +4585,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
-        <v>16.9333333333333</v>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
+        <v>17.1875</v>
       </c>
     </row>
   </sheetData>
@@ -4621,7 +4625,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4644,7 +4648,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -4655,51 +4659,51 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -4720,20 +4724,20 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>15.1666666666667</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -4744,18 +4748,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -4766,29 +4770,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -4799,7 +4803,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -4820,36 +4824,36 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>14.2857142857143</v>
+        <v>14.7142857142857</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4864,7 +4868,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>38</v>
@@ -4879,11 +4883,11 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>14.3333333333333</v>
+        <v>14.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4895,10 +4899,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C38"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4921,7 +4925,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -4932,13 +4936,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4949,7 +4953,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4965,7 +4969,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -4976,13 +4980,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4997,42 +5001,42 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -5043,124 +5047,146 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
-        <v>12.4285714285714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>12.8888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="3">
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="3">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="C31" s="3">
+        <f>AVERAGE(C27:C28)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>12.8666666666667</v>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C7,C13:C21,C27:C28)</f>
+        <v>13.2941176470588</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="3"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -59,6 +59,9 @@
     <t>四芒军旗</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
     <t>夺取阵地</t>
   </si>
   <si>
@@ -248,13 +248,7 @@
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>心灵操控</t>
-  </si>
-  <si>
     <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>No.6沃凡瑞拉</t>
   </si>
   <si>
     <t>隐秘卡等：</t>
@@ -1224,7 +1218,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1275,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1308,7 +1302,7 @@
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>19.5</v>
+        <v>19.75</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1328,10 +1322,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1339,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1353,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1361,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1430,7 +1424,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C11:C19)</f>
-        <v>17.4444444444444</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1463,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1474,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1518,7 +1512,7 @@
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>17.3333333333333</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1530,14 +1524,14 @@
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C5,C11:C19,C25:C30)</f>
-        <v>17.8421052631579</v>
+        <v>18.1052631578947</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C8 C36" formulaRange="1"/>
+    <ignoredError sqref="C36 C8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1548,7 +1542,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1588,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1643,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1676,7 +1670,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1743,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1765,7 +1759,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
-        <v>16.8333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1821,7 +1815,7 @@
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>17.1875</v>
+        <v>17.375</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1830,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1887,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1898,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1942,7 +1936,7 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>16</v>
+        <v>16.3333333333333</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1976,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2009,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2042,7 +2036,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>14.7142857142857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2098,7 +2092,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>14.8666666666667</v>
+        <v>15.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2110,10 +2104,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2312,15 +2306,9 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
@@ -2328,76 +2316,60 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>12.8888888888889</v>
+      <c r="C23" s="2">
+        <f>AVERAGE(C13:C20)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C27:C28)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C28)</f>
-        <v>13.2941176470588</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
+        <v>13.4</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="3"/>
+    <workbookView windowWidth="10890" windowHeight="9900" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -47,6 +47,9 @@
     <t>增援战线</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -56,12 +59,12 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>圣殿骑士</t>
   </si>
   <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
     <t>夺取阵地</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
     <t>禁卫百夫长</t>
   </si>
   <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -116,15 +119,12 @@
     <t>心灵黑洞</t>
   </si>
   <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
     <t>黑夜突袭</t>
   </si>
   <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
     <t>酗酒醉汉</t>
   </si>
   <si>
@@ -137,6 +137,9 @@
     <t>海燕精卫</t>
   </si>
   <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
     <t>黑水伏击</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
     <t>烈日大祭师</t>
   </si>
   <si>
-    <t>星辰陨落</t>
-  </si>
-  <si>
     <t>黑旗舰队船长</t>
   </si>
   <si>
@@ -176,18 +176,18 @@
     <t>强行捕猎</t>
   </si>
   <si>
-    <t>血蜥头领</t>
+    <t>无畏猎户</t>
   </si>
   <si>
     <t>地洞巨獾</t>
   </si>
   <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
     <t>肥鼠晚宴</t>
   </si>
   <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -215,9 +215,6 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>虚化术</t>
-  </si>
-  <si>
     <t>学仆-能源型</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>心灵操控</t>
   </si>
   <si>
     <t>No.2时光·米拉</t>
@@ -1217,8 +1217,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1266,21 +1266,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1295,42 +1295,42 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>19.75</v>
+        <v>19.25</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1352,57 +1352,57 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
         <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1417,80 +1417,80 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C11:C19)</f>
-        <v>17.6666666666667</v>
+        <v>18.5555555555556</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
         <v>8</v>
       </c>
       <c r="C30" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1505,33 +1505,33 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3">
         <f>AVERAGE(C25:C30)</f>
-        <v>17.6666666666667</v>
+        <v>18.6666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4">
         <f>AVERAGE(C2:C5,C11:C19,C25:C30)</f>
-        <v>18.1052631578947</v>
+        <v>18.7368421052632</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C8" formulaRange="1"/>
+    <ignoredError sqref="C8 C36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1539,10 +1539,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1565,18 +1565,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1598,18 +1598,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1620,74 +1620,74 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>18.375</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>18.5714285714286</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1698,47 +1698,41 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1746,43 +1740,43 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
-        <v>17</v>
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -1790,32 +1784,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>17.375</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
+        <v>17.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1819,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1881,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1929,14 +1918,14 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>16.3333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1948,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1959,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1981,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1992,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2014,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2029,14 +2018,14 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>15</v>
+        <v>15.8571428571429</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2058,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2073,26 +2062,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>15.1333333333333</v>
+        <v>15.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2106,8 +2095,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2136,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2147,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2166,10 +2155,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2180,42 +2169,42 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>13</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>14</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>14.6</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -2225,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2244,10 +2233,10 @@
         <v>66</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2255,7 +2244,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -2269,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2277,10 +2266,10 @@
         <v>69</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2288,10 +2277,10 @@
         <v>70</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2302,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2317,14 +2306,14 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>13</v>
+        <f>AVERAGE(C12:C20)</f>
+        <v>13.5555555555556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2335,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2350,26 +2339,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>13.4</v>
+        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
+        <v>13.9333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/akui/zz_ak_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10890" windowHeight="9900" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="3" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>名称</t>
   </si>
@@ -80,9 +80,6 @@
     <t>夺取阵地</t>
   </si>
   <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
     <t>禁卫百夫长</t>
   </si>
   <si>
@@ -164,12 +161,12 @@
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
     <t>势如破竹</t>
   </si>
   <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
     <t>迅捷长矛手</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
   </si>
   <si>
     <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>心灵操控</t>
   </si>
   <si>
     <t>No.2时光·米拉</t>
@@ -1215,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1247,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1258,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1269,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1296,7 @@
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>19.25</v>
+        <v>20.5</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1314,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1347,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1369,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1388,22 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1411,20 +1399,26 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C11:C18)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>18.5555555555556</v>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1432,10 +1426,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1446,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1454,10 +1448,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1465,10 +1459,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1476,22 +1470,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>18</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -1499,39 +1487,34 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C24:C29)</f>
+        <v>18.8333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C25:C30)</f>
-        <v>18.6666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C30)</f>
-        <v>18.7368421052632</v>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C5,C11:C18,C24:C29)</f>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C8 C36" formulaRange="1"/>
+    <ignoredError sqref="C35 C8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1542,7 +1525,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1565,7 +1548,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1576,18 +1559,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1598,7 +1581,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1609,7 +1592,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1620,7 +1603,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1631,7 +1614,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1659,24 +1642,24 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>18.5714285714286</v>
+        <v>18.7142857142857</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1687,7 +1670,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1698,7 +1681,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1709,7 +1692,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -1720,7 +1703,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>6</v>
@@ -1744,27 +1727,27 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>18</v>
+        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -1788,23 +1771,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>17.8666666666667</v>
+        <v>18.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1818,8 +1801,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1842,18 +1825,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1864,29 +1847,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -1897,13 +1880,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1925,13 +1908,13 @@
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>16.5</v>
+        <v>17.1666666666667</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1942,7 +1925,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1953,7 +1936,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1964,7 +1947,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1975,7 +1958,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1986,18 +1969,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -2021,16 +2004,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>15.8571428571429</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2041,7 +2024,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -2065,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
@@ -2074,14 +2057,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>15.6666666666667</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2093,10 +2076,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2119,7 +2102,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2130,29 +2113,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -2163,7 +2146,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -2191,13 +2174,13 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -2208,18 +2191,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -2230,7 +2213,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -2241,29 +2224,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -2274,25 +2257,19 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2">
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2300,32 +2277,32 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C12:C20)</f>
-        <v>13.5555555555556</v>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C12:C19)</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
@@ -2333,32 +2310,27 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <f>AVERAGE(C25:C25)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>13.9333333333333</v>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="4">
+        <f>AVERAGE(C2:C6,C12:C19,C25:C25)</f>
+        <v>14.5714285714286</v>
       </c>
     </row>
   </sheetData>
